--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment_Pay_Bene.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment_Pay_Bene.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment_Pay_Bene.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment_Pay_Bene.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="153">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>status_query</t>
-  </si>
-  <si>
-    <t>status_query2</t>
-  </si>
-  <si>
     <t>Category_Value</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
     <t>expiry_date</t>
   </si>
   <si>
-    <t>schedule_type</t>
-  </si>
-  <si>
-    <t>maximum_amount</t>
-  </si>
-  <si>
     <t>bene_name</t>
   </si>
   <si>
@@ -101,18 +89,9 @@
     <t>instrument_type</t>
   </si>
   <si>
-    <t>schedule_config</t>
-  </si>
-  <si>
-    <t>schedule_verify</t>
-  </si>
-  <si>
     <t>consumer_label_query</t>
   </si>
   <si>
-    <t>IS_SI_Allowed_query</t>
-  </si>
-  <si>
     <t>is_paid_query</t>
   </si>
   <si>
@@ -122,24 +101,12 @@
     <t>is_partial_payment_query</t>
   </si>
   <si>
-    <t>When valid bill details are provided 06124110095500</t>
-  </si>
-  <si>
-    <t>UPDATE LP_BILLS L SET L.BILL_STATUS_ID=1 , L.DUE_DATE=TRUNC(SYSDATE) WHERE L.CONSUMER_NO='{ConsumerNo}'</t>
-  </si>
-  <si>
-    <t>BEGIN UPDATE DC_SCHEDULED_TRAN_MASTER STM SET STM.STATE = 46 , STM.IS_DELETED = 1 WHERE STM.BILL_BENEFICIARY_ID = (SELECT BPB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY BPB WHERE BPB.CONSUMER_NUMBER = '{ConsumerNo}' AND BPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND BPB.IS_ACTIVE = 1);UPDATE DC_BILL_PAYMENT_BENEFICIARY DPB SET DPB.IS_SI_SCHEDULED = 0,DPB.IS_ACTIVE = 0 WHERE DPB.CONSUMER_NUMBER = '{ConsumerNo}' AND DPB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND DPB.IS_ACTIVE = 1;COMMIT;END;</t>
-  </si>
-  <si>
     <t>Electricity Bill Payment</t>
   </si>
   <si>
     <t>GEPCO</t>
   </si>
   <si>
-    <t>06124110095500</t>
-  </si>
-  <si>
     <t>SELECT LB.BILL_AMOUNT, LB.COMPANY_CODE, LB.DUE_DATE FROM LP_BILLS LB WHERE LB.CONSUMER_NO='{ConsumerNo}' ORDER BY LB.BILLING_MONTH DESC</t>
   </si>
   <si>
@@ -170,36 +137,18 @@
     <t>QAT_BPS</t>
   </si>
   <si>
-    <t>00476000949001</t>
-  </si>
-  <si>
     <t>RETAIL</t>
   </si>
   <si>
-    <t>Pay_Transaction_PayBillAmount_RadioBtn</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
     <t>SELECT CC.IS_RECURRING_PAYMENT FROM BPS_COMPANY_CHANNEL CC WHERE CC.COMPANY_CODE = '{Company_Code}' AND CC.CHANNEL_CODE = 'MB'</t>
   </si>
   <si>
     <t>Select Instrument_type from BPS_COMPANY_CHANNEL i where i.COMPANY_CODE='{Company_Code}' and i.CHANNEL_CODE='MB'</t>
   </si>
   <si>
-    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL i where I.APPLICATION_PARAMETER_ID='906'</t>
-  </si>
-  <si>
-    <t>SELECT TM.FIRST_EXECUTION_DATE,TM.LAST_EXECUTION_DATE FROM DC_SCHEDULED_TRAN_MASTER TM WHERE TM.BILL_BENEFICIARY_ID = (SELECT PB.BENEFICIARY_ID FROM DC_BILL_PAYMENT_BENEFICIARY PB WHERE PB.CONSUMER_NUMBER = '{ConsumerNo}' AND PB.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') AND PB.IS_ACTIVE = 1)</t>
-  </si>
-  <si>
     <t>Select K.CONSUMER_NO_LABEL from BPS_COMPANY_CHANNEL K where k.COMPANY_CODE = '{Company_Code}' and K.CHANNEL_CODE = 'MB'</t>
   </si>
   <si>
-    <t>SELECT L.IS_SI_ALLOWED FROM BPS_COMPANY_CHANNEL L WHERE L.COMPANY_CODE = '{Company_Code}' and L.CHANNEL_CODE = 'MB'</t>
-  </si>
-  <si>
     <t>SELECT K.IS_PAID_MARKING_REQUIRED FROM BPS_COMPANY_CHANNEL  K where k.COMPANY_CODE = '{Company_Code}' and K.CHANNEL_CODE = 'MB'</t>
   </si>
   <si>
@@ -209,44 +158,350 @@
     <t>Select K.IS_PARTIAL_PAYMENT_ALLOWED from BPS_COMPANY_CHANNEL K where k.COMPANY_CODE =  '{Company_Code}'  and K.CHANNEL_CODE = 'MB'</t>
   </si>
   <si>
-    <t>When valid bill details are provided 5733160000</t>
-  </si>
-  <si>
     <t>Gas Bill Payment</t>
   </si>
   <si>
     <t>SSGC</t>
   </si>
   <si>
-    <t>5733160000</t>
-  </si>
-  <si>
     <t>SSGC0001</t>
   </si>
   <si>
-    <t>Pay_Transaction_MaxBillAmount_RadioBtn</t>
-  </si>
-  <si>
-    <t>When valid bill details are provided 06124110093801</t>
-  </si>
-  <si>
-    <t>06124110093801</t>
-  </si>
-  <si>
     <t>pakistan3</t>
+  </si>
+  <si>
+    <t>category_list_query</t>
+  </si>
+  <si>
+    <t>partial_amount</t>
+  </si>
+  <si>
+    <t>select distinct (SUB_CATEGORY_CODE) from BPS_COMPANY_CHANNEL s where s.channel_code='MB' ORDER BY SUB_CATEGORY_CODE ASC</t>
+  </si>
+  <si>
+    <t>K-ELECTRIC</t>
+  </si>
+  <si>
+    <t>0400000444845</t>
+  </si>
+  <si>
+    <t>KESC0001</t>
+  </si>
+  <si>
+    <t>08947914217101</t>
+  </si>
+  <si>
+    <t>office1</t>
+  </si>
+  <si>
+    <t>Water / Sanitation Bill Payment</t>
+  </si>
+  <si>
+    <t>KWSB</t>
+  </si>
+  <si>
+    <t>65009343000062</t>
+  </si>
+  <si>
+    <t>KWSB0001</t>
+  </si>
+  <si>
+    <t>office2</t>
+  </si>
+  <si>
+    <t>0043561000</t>
+  </si>
+  <si>
+    <t>office3</t>
+  </si>
+  <si>
+    <t>Landline Bill Payment</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>1762135</t>
+  </si>
+  <si>
+    <t>SCO00001</t>
+  </si>
+  <si>
+    <t>office4</t>
+  </si>
+  <si>
+    <t>0400000444993</t>
+  </si>
+  <si>
+    <t>office5</t>
+  </si>
+  <si>
+    <t>65009343100025</t>
+  </si>
+  <si>
+    <t>office6</t>
+  </si>
+  <si>
+    <t>0043641311</t>
+  </si>
+  <si>
+    <t>office7</t>
+  </si>
+  <si>
+    <t>1762141</t>
+  </si>
+  <si>
+    <t>office8</t>
+  </si>
+  <si>
+    <t>0400000451191</t>
+  </si>
+  <si>
+    <t>office9</t>
+  </si>
+  <si>
+    <t>15121120396600</t>
+  </si>
+  <si>
+    <t>office10</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>office11</t>
+  </si>
+  <si>
+    <t>0400000444578</t>
+  </si>
+  <si>
+    <t>office12</t>
+  </si>
+  <si>
+    <t>0469291000</t>
+  </si>
+  <si>
+    <t>office32</t>
+  </si>
+  <si>
+    <t>0641331000</t>
+  </si>
+  <si>
+    <t>GWASA</t>
+  </si>
+  <si>
+    <t>289466</t>
+  </si>
+  <si>
+    <t>GWASA001</t>
+  </si>
+  <si>
+    <t>office63</t>
+  </si>
+  <si>
+    <t>65008974300062</t>
+  </si>
+  <si>
+    <t>office61</t>
+  </si>
+  <si>
+    <t>0400001125751</t>
+  </si>
+  <si>
+    <t>office145</t>
+  </si>
+  <si>
+    <t>0400000986710</t>
+  </si>
+  <si>
+    <t>01397902684703</t>
+  </si>
+  <si>
+    <t>0400000986877</t>
+  </si>
+  <si>
+    <t>0048757038</t>
+  </si>
+  <si>
+    <t>11187900743203</t>
+  </si>
+  <si>
+    <t>0807230610</t>
+  </si>
+  <si>
+    <t>23997980915801</t>
+  </si>
+  <si>
+    <t>office33</t>
+  </si>
+  <si>
+    <t>0400000984599</t>
+  </si>
+  <si>
+    <t>24747000017803</t>
+  </si>
+  <si>
+    <t>0400000984750</t>
+  </si>
+  <si>
+    <t>0400000984823</t>
+  </si>
+  <si>
+    <t>office111</t>
+  </si>
+  <si>
+    <t>0400001477100</t>
+  </si>
+  <si>
+    <t>24460094903010</t>
+  </si>
+  <si>
+    <t>0400001477216</t>
+  </si>
+  <si>
+    <t>0400001477364</t>
+  </si>
+  <si>
+    <t>0400001290450</t>
+  </si>
+  <si>
+    <t>07867918480299</t>
+  </si>
+  <si>
+    <t>0400001290604</t>
+  </si>
+  <si>
+    <t>0400001290717</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity where password is required Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Water where password and OTP both are required Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Gas where OTP is required Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided Landline where OTP and password both are not required Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When bill is already paid Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to allowed days have passed Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to 0 amount Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When bill is blocked due to negative amount Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When bill is blocked due bill amount is below MIN ammount in HBPS Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When user enter extra payment which is not allowed Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When user enter invalid consumer number Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When bill is blocked due bill amount exceed MAX ammount in HBPS Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When user enter valid OTP Bene_Bravo Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When user enter invalid OTP Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When company is disabled at HBPS and system wants to perform the transaction Bene_Bravo</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted Bene_Bravo</t>
+  </si>
+  <si>
+    <t>When user enter valid password Bene_VALIDINVALIDIB</t>
+  </si>
+  <si>
+    <t>When user enter invalid password count 1 Bene_VALIDINVALIDIB</t>
+  </si>
+  <si>
+    <t>When user enter invalid password count 2 Bene_VALIDINVALIDIB</t>
+  </si>
+  <si>
+    <t>When user enter invalid password count 3 Bene_VALIDINVALIDIB</t>
+  </si>
+  <si>
+    <t>When user enter valid password but at this time TXN password locked Bene_VALIDINVALIDIB</t>
+  </si>
+  <si>
+    <t>If user have insufficient balance and perfrom the transaction Bene_NOTHINGIB</t>
+  </si>
+  <si>
+    <t>To verfiy that user receive IVR call at the time of transaction Bene_IVRCALLINGIB</t>
+  </si>
+  <si>
+    <t>To verfiy that user receive 2nd IVR call at the time of transaction 1st one is in pending state Bene_IVRCALLINGIB</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits PSD Bene_ENABLEPSD1IB</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment PSD Bene_ENABLEPSD1IB</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted PSD Bene_ENABLEPSD1IB</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits PRESTIGE Bene_PRESTIGEBROIB</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment PRESTIGE Bene_PRESTIGEBROIB</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted PRESTIGE Bene_PRESTIGEBROIB</t>
+  </si>
+  <si>
+    <t>To verify the boundary values of limits NRP Bene_NRPBROIB</t>
+  </si>
+  <si>
+    <t>When valid bill details are provided of Electricity bill payment NRP Bene_NRPBROIB</t>
+  </si>
+  <si>
+    <t>When user's daily limit is exhausted NRP Bene_NRPBROIB</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,10 +524,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,410 +820,2850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="140.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="139.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="118.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="101.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="203.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="129.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="123.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="137.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="78.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="144.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="79" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="89.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="129.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="137.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="139.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="125.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <v>12345678</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3">
+        <v>12345678</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>12345678</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5">
+        <v>12345678</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <v>12345678</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>12345678</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>12345678</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9">
+        <v>12345678</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" t="s">
+        <v>40</v>
+      </c>
+      <c r="X9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10">
+        <v>12345678</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="G11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="H11">
+        <v>12345678</v>
+      </c>
+      <c r="I11" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="K11" t="s">
         <v>31</v>
       </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" t="s">
+        <v>79</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA11">
+        <v>501</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12">
+        <v>12345678</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="M12" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="N12" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="O12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="P12" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="Q12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="T12" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="V12" t="s">
         <v>39</v>
       </c>
-      <c r="I2">
-        <v>12345680</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="W12" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="X12" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Y12" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Z12" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AB12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13">
+        <v>12345678</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" t="s">
+        <v>40</v>
+      </c>
+      <c r="X13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
+      <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="H14">
+        <v>12345678</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>11111111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s">
+        <v>85</v>
+      </c>
+      <c r="U15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W15" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16">
+        <v>12345678</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" t="s">
+        <v>90</v>
+      </c>
+      <c r="U16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" t="s">
+        <v>39</v>
+      </c>
+      <c r="W16" t="s">
+        <v>40</v>
+      </c>
+      <c r="X16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17">
+        <v>12345678</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U17" t="s">
+        <v>38</v>
+      </c>
+      <c r="V17" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" t="s">
+        <v>40</v>
+      </c>
+      <c r="X17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18">
+        <v>12345678</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s">
+        <v>94</v>
+      </c>
+      <c r="U18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19">
+        <v>12345678</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s">
+        <v>55</v>
+      </c>
+      <c r="U19" t="s">
+        <v>38</v>
+      </c>
+      <c r="V19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20">
+        <v>12345678</v>
+      </c>
+      <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" t="s">
+        <v>40</v>
+      </c>
+      <c r="X20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20" t="s">
         <v>50</v>
       </c>
-      <c r="W2" t="s">
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="E21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="H21">
+        <v>12345678</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" t="s">
+        <v>62</v>
+      </c>
+      <c r="U21" t="s">
+        <v>38</v>
+      </c>
+      <c r="V21" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" t="s">
+        <v>40</v>
+      </c>
+      <c r="X21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22">
+        <v>12345678</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s">
+        <v>67</v>
+      </c>
+      <c r="U22" t="s">
+        <v>38</v>
+      </c>
+      <c r="V22" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" t="s">
+        <v>40</v>
+      </c>
+      <c r="X22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23">
+        <v>12345678</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T23" t="s">
+        <v>69</v>
+      </c>
+      <c r="U23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" t="s">
+        <v>40</v>
+      </c>
+      <c r="X23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24">
+        <v>12345678</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s">
+        <v>62</v>
+      </c>
+      <c r="U24" t="s">
+        <v>38</v>
+      </c>
+      <c r="V24" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25">
+        <v>12345678</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" t="s">
+        <v>35</v>
+      </c>
+      <c r="P25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" t="s">
+        <v>62</v>
+      </c>
+      <c r="U25" t="s">
+        <v>38</v>
+      </c>
+      <c r="V25" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26">
+        <v>12345678</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T26" t="s">
+        <v>102</v>
+      </c>
+      <c r="U26" t="s">
+        <v>38</v>
+      </c>
+      <c r="V26" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27">
+        <v>12345678</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T27" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>60</v>
+      <c r="U27" t="s">
+        <v>38</v>
+      </c>
+      <c r="V27" t="s">
+        <v>39</v>
+      </c>
+      <c r="W27" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28">
+        <v>12345678</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="N28" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="O28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s">
+        <v>81</v>
+      </c>
+      <c r="U28" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3">
-        <v>12345681</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="V28" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="X28" t="s">
         <v>41</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Y28" t="s">
         <v>42</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Z28" t="s">
         <v>43</v>
       </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3">
-        <v>101</v>
-      </c>
-      <c r="X3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="AB28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="H29">
+        <v>12345678</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M29" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" t="s">
+        <v>35</v>
+      </c>
+      <c r="P29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T29" t="s">
+        <v>107</v>
+      </c>
+      <c r="U29" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29" t="s">
+        <v>39</v>
+      </c>
+      <c r="W29" t="s">
+        <v>40</v>
+      </c>
+      <c r="X29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30">
+        <v>12345678</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>60</v>
+      <c r="U30" t="s">
+        <v>38</v>
+      </c>
+      <c r="V30" t="s">
+        <v>39</v>
+      </c>
+      <c r="W30" t="s">
+        <v>40</v>
+      </c>
+      <c r="X30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31">
+        <v>12345678</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N31" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="O31" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="P31" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="Q31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31" t="s">
+        <v>81</v>
+      </c>
+      <c r="U31" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="V31" t="s">
         <v>39</v>
       </c>
-      <c r="I4">
-        <v>12345682</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="W31" t="s">
+        <v>40</v>
+      </c>
+      <c r="X31" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
+      <c r="Y31" t="s">
         <v>42</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Z31" t="s">
         <v>43</v>
       </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="AB31" t="s">
         <v>50</v>
       </c>
-      <c r="W4" t="s">
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="E32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="H32">
+        <v>12345678</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s">
+        <v>107</v>
+      </c>
+      <c r="U32" t="s">
+        <v>38</v>
+      </c>
+      <c r="V32" t="s">
+        <v>39</v>
+      </c>
+      <c r="W32" t="s">
+        <v>40</v>
+      </c>
+      <c r="X32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33">
+        <v>12345678</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>60</v>
+      <c r="U33" t="s">
+        <v>38</v>
+      </c>
+      <c r="V33" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34">
+        <v>12345678</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s">
+        <v>81</v>
+      </c>
+      <c r="U34" t="s">
+        <v>38</v>
+      </c>
+      <c r="V34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W34" t="s">
+        <v>40</v>
+      </c>
+      <c r="X34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35">
+        <v>12345678</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s">
+        <v>107</v>
+      </c>
+      <c r="U35" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" t="s">
+        <v>40</v>
+      </c>
+      <c r="X35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
